--- a/topic_split/topic_9.xlsx
+++ b/topic_split/topic_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>issue</t>
   </si>
@@ -22,62 +22,68 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.00793103 0.00776849 0.0546112  0.00761819 0.01345886 0.01213546
- 0.01684071 0.01731988 0.2040673  0.01101797 0.02116638 0.0701849
- 0.03003717 0.00972927 0.01496451 0.01209609 0.01097383 0.01303435
- 0.01475194 0.01341604 0.06431708 0.01330139 0.02377734 0.01153521
- 0.03280912]</t>
-  </si>
-  <si>
-    <t>[0.00642024 0.00637219 0.04541447 0.00623564 0.01082966 0.00965011
- 0.0132071  0.01339739 0.1135407  0.00902403 0.01653246 0.07297271
- 0.02251878 0.00794794 0.0117019  0.00991419 0.00879654 0.01027533
- 0.01199811 0.01091309 0.0438238  0.01069789 0.01797544 0.00938956
- 0.02676203]</t>
-  </si>
-  <si>
-    <t>[2.20692554e-308 2.17874416e-308 1.15201110e-307 2.12855817e-308
- 3.64890615e-308 3.37514901e-308 4.97401747e-308 4.94903789e-308
- 1.00000000e+000 3.13972768e-308 6.22735525e-308 1.88605318e-307
- 9.39203291e-308 2.76234134e-308 4.30639913e-308 3.45023244e-308
- 3.07802201e-308 3.73669013e-308 4.26102784e-308 3.87717607e-308
- 1.57791272e-307 3.80187432e-308 6.77136659e-308 3.30281994e-308
- 1.01570889e-307]</t>
-  </si>
-  <si>
-    <t>[0.00709876 0.00646581 0.03369512 0.0063246  0.0121589  0.01123175
- 0.01626101 0.01677673 0.13530677 0.01007014 0.02229794 0.0531042
- 0.03271578 0.00822283 0.01417902 0.01122993 0.01015227 0.01209332
- 0.01427726 0.01270342 0.075639   0.01273697 0.02470939 0.01065558
- 0.03750509]</t>
-  </si>
-  <si>
-    <t>[2.27304147e-308 2.20068954e-308 1.04130279e-307 2.15018525e-308
- 3.75119712e-308 3.53387134e-308 5.38475479e-308 5.36296907e-308
- 1.00000000e+000 3.22754752e-308 6.81550662e-308 1.59907113e-307
- 1.08770580e-307 2.80794255e-308 4.62637594e-308 3.55235026e-308
- 3.21111501e-308 3.97281507e-308 4.44356129e-308 4.03375886e-308
- 1.85520147e-307 3.98802050e-308 7.46330173e-308 3.41780666e-308
- 1.07579982e-307]</t>
-  </si>
-  <si>
-    <t>[0.00576871 0.00534274 0.02420587 0.00523523 0.00981607 0.0093287
- 0.01414432 0.01486033 0.10607963 0.00788413 0.01827718 0.0303838
- 0.02933429 0.00680297 0.0123947  0.00869024 0.00829899 0.01042646
- 0.01096964 0.00990794 0.05820151 0.01013942 0.02143626 0.00840733
- 0.02418785]</t>
-  </si>
-  <si>
-    <t>[2.21635840e-308 2.17172024e-308 1.16758112e-307 2.12335879e-308
- 3.69306419e-308 3.41580198e-308 5.02735793e-308 5.04751740e-308
- 1.00000000e+000 3.12785697e-308 6.31261192e-308 1.76037270e-307
- 9.64998108e-308 2.75475863e-308 4.36450470e-308 3.43824066e-308
- 3.10207764e-308 3.77339468e-308 4.25831847e-308 3.86912575e-308
- 1.70653614e-307 3.82061784e-308 7.00697341e-308 3.29642168e-308
- 1.00201511e-307]</t>
+    <t>[PROD] User content translation issues
+We have noticed a few weird cases after the first few FRs got translated:
+- [ ] IFRCGo/go-web-app#531
+- [x] the styling codes may appear not only in Arabic, but in other languages as well. In this example https://go.ifrc.org/emergencies/6542#surge , the code is not displayed in the input language (French), but appears in the 3 other languages. 
+- [x] part of the text may not be translated (https://go.ifrc.org/emergencies/6542#surge): 
+The French input:
+![image](https://github.com/IFRCGo/go-frontend/assets/68283148/a801c8cf-3f4f-4ad7-9d94-adf619303374)
+The English translation contains some French (however the same text is translated in other places of the text):
+![image](https://github.com/IFRCGo/go-frontend/assets/68283148/fa2f61be-3d3d-4aaa-b5ab-96bf6ff6eb76)
+The Spanish translation even contains English translations weirdly, besides the not translated French strings:
+![image](https://github.com/IFRCGo/go-frontend/assets/68283148/d5fecd48-4b00-41f2-bf11-0a11eea747e2)
+- [ ] IFRCGo/go-web-app#529
+- [ ] IFRCGo/go-web-app#530
+### Tasks
+- [x] IFRCGo/go-frontend#2890
+- [x] IFRCGo/go-frontend#2891
+- [x] IFRCGo/go-frontend#2892
+- [x] IFRCGo/go-frontend#2900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] Appeal Type column in search results doesn't handle list correctly
+When searching for an emergency I saw that Appeal Type in the emergencies table isn't parsing a list of appeals correctly (it has the square brackets around the list):
+![Screen Shot 2024-05-13 at 10 57 03 AM](https://github.com/IFRCGo/go-web-app/assets/8890661/5dd4b280-7453-4a2a-9cca-2e3be0c4c0a3)
+Here's the search URL: https://go.ifrc.org/search?keyword=southern%20africa%20%20drought
+Using Firefox, confirmed issue in Chrome as well. </t>
+  </si>
+  <si>
+    <t>[user feedback] GO "About" page discoverability
+User feedback for consideration:
+- as a person who hadn't used GO before, I was confused as to what GO was for and how to use it.  It would be good if there was an "About" page with information about what GO was for.
+User had not been aware that there was an about page https://go.ifrc.org/resources
+[from Clementine prior to starting with IM team]
+response from @LukeCaley:  there *is* an about page, need to make sure it's clearer in the nav, and that users can find the overview info e.g. GO video.
+[I am logging on behalf of Luke and Clementine so that this feedback is tracked for consideration for action]</t>
+  </si>
+  <si>
+    <t>[PROD] Language issues with Surge CoS and Ops Toolbox in non-English languages (e.g. Spanish)
+## Issue There is a presentation about GO to Spanish speakers. I am looking at the [Ops Toolbox](https://go.ifrc.org/surge/operational-toolbox) and the [Catalogue of Surge Services](https://go.ifrc.org/surge/catalogue/overview) in Spanish - and can see several issues. CoS main page: - Tab is in Spanish but the heading (that has same words) is still in English - All of the wording is in English CoS sectoral pages (e.g. https://go.ifrc.org/surge/catalogue/information-management ) - Most of it not translated at all, just a couple of headings and links are translated - sub pages (e.g. https://go.ifrc.org/surge/catalogue/information-management/roles-responsibility) also not translated Ops Toolbox: - almost all not translated, just a couple of headings are translated - weird glitch whereby in non-English versions there is an extra piece of text that looks like it might be a variable name? `_x005F_x000d__x005F_x000d__x005F_x000d_ How to Navigate:`  ## Expected behaviour GO should be available in all 4 languages. QUESTION: @tovari - are these translation gaps a bug? or a known gap? or is it new information that these pages aren't translated? - is manual translation needing to be arranged - if so I can potentially help wrangle - just please advise the process to manage the translations @LukeCaley xref https://github.com/IFRCGo/go-web-app/issues/486#issuecomment-2186548510 Thanks as always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] Country Key Indicators missing and source+date not clear
+## Issue
+The Rapid Needs Assessment for the Hurricane Beryl response needs certain indicators for Barbados as per [SIMS Slack thread](https://sims-ifrc.slack.com/archives/C07C4J5MLQG/p1721988646666929).
+They need to know things like Total Population (incl % Male, % Female), Life Expectancy in Years, Under-five mortality rate, Population living in urban areas etc.
+I was going to direct them to get some of the figures from [GO Country Page](https://go.ifrc.org/countries/75/profile/overview) however I can't refer them to GO for two reasons:
+1. Life Expectancy, Literacy, Poverty, Gender Inequality Index are all blank
+I can see that the first two are due to https://github.com/IFRCGo/go-web-app/issues/571 but I'm not sure why the other two are blank
+2. even for the figures that are there, the source and date are not specified.  e.g. Population is given as 124,438 - and further down it says "Sources:  The World Bank, UNICEF, HDR".  How do I know which of these organisations the Population figure is from?  And what date that population figure relates to?  Even if I click through to the links in the Source section it still doesn't give details of exactly where the data for these indicators comes from.
+To make this section usable we need to ensure that the data is populated and the sources/dates are clearly identifiable for each indicator.
+@mariam-yu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] "Oops! Looks like we ran into some issue!" Invalid regular expression: invalid group specifier name
+A user has emailed the IM mailbox reporting an issue when trying to open the log-in page - as per screenshot, the screen shows
+&gt; Oops! Looks like we ran into some issue!
+&gt; Invalid regular expression: invalid group specifier name
+&gt; and a bunch of stuff about moduleEvaluation@[native code]
+The user reports that they were using Safari.
+They subsequently tried loading GO using Google Chrome and could access it fine.
+The user is therefore not blocked  - and I have only seen it from one user - however thought it worth logging a ticket in case this is something that needs to be fixed.
+![GO issue](https://github.com/user-attachments/assets/02eb1df5-2bdf-4675-9709-060ec0c80d28)
+</t>
   </si>
 </sst>
 </file>
@@ -435,98 +441,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>72</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>98</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>121</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>162</v>
       </c>
       <c r="B7">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>194</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
